--- a/DQM3.xlsx
+++ b/DQM3.xlsx
@@ -1,40 +1,367 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\public_git\fun\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4966921-0AB3-40E7-A514-F0D7014828D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="合成" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$6:$F$532</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="72">
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史莱姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树史莱姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞翼史莱姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荆棘龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幼龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒花龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖精龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海马</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微笑蜥蜴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨型公鸡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛虫怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>串椒双胞胎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丝瓜怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茄子怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小乌贼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>踢踏企鹅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯笼海豚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食蚁熊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捣蛋鼹鼠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独角兔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大木锤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛毛鼠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幼崽豹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大耳飞鼠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泥浆人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多拉奇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小妖精</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摩萌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼠射手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独眼巨人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树桩怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腐烂尸体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑暗束缚者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泡沫史莱姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪莱姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜗牛史莱姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翼蛇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>森林龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨鸦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼洋葱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需合成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尾食怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇彩鸟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凶暴牛鸟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头骨袋鼠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监狱猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机关蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯笼小鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笑面口袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘人偶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡碟盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持盾小鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨目虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厚唇蛞蝓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑夜妖蝠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僵尸兽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖怪蘑菇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骸骨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骷髅骑士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死之奴隶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>479*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>460*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,11 +376,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +666,3340 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="C6:F532"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H76" sqref="H76"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="3" width="9.06640625" style="1"/>
+    <col min="4" max="4" width="13.59765625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.06640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="1">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C12" s="1">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C13" s="1">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C14" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C15" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C16" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C17" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C18" s="1">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C19" s="1">
+        <v>13</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C20" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C21" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C22" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C23" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C24" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C25" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C26" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C27" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C28" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C29" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C30" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C31" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C32" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C33" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C34" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C35" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C36" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C37" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C38" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C39" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C40" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C41" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C42" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C43" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C44" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C45" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C46" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C47" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C48" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C49" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C50" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C51" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C52" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C53" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C54" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C55" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C56" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C57" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C58" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C59" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C60" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C61" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C62" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C63" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C64" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C65" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C66" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C67" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C68" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C69" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C70" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C71" s="1">
+        <v>65</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C72" s="1">
+        <v>66</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C73" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C74" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C75" s="1">
+        <v>69</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C76" s="1">
+        <v>70</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C77" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C78" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="79" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C79" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C80" s="1">
+        <v>74</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="81" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C81" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C82" s="1">
+        <v>76</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C83" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C84" s="1">
+        <v>78</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C85" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="86" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C86" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C87" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="88" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C88" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="89" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C89" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="90" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C90" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="91" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C91" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="92" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C92" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="93" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C93" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="94" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C94" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="95" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C95" s="1">
+        <v>89</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="96" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C96" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C97" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C98" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C99" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C100" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C101" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C102" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C103" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C104" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C105" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C106" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C107" s="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C108" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C109" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C110" s="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C111" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C112" s="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C113" s="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C114" s="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C115" s="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C116" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C117" s="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C118" s="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C119" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C120" s="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C121" s="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C122" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C123" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C124" s="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C125" s="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C126" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C127" s="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C128" s="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="129" spans="3:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C129" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="130" spans="3:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C130" s="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="131" spans="3:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C131" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="132" spans="3:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C132" s="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="133" spans="3:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C133" s="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="134" spans="3:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C134" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="135" spans="3:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C135" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="136" spans="3:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C136" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="137" spans="3:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C137" s="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="138" spans="3:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C138" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="139" spans="3:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C139" s="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="140" spans="3:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C140" s="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="141" spans="3:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C141" s="1">
+        <v>135</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="142" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C142" s="1">
+        <v>136</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C143" s="1">
+        <v>137</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="144" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C144" s="1">
+        <v>138</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C145" s="1">
+        <v>139</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C146" s="1">
+        <v>140</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C147" s="1">
+        <v>141</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="148" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C148" s="1">
+        <v>142</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C149" s="1">
+        <v>143</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="150" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C150" s="1">
+        <v>144</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C151" s="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="152" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C152" s="1">
+        <v>146</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="153" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C153" s="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="154" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C154" s="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="155" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C155" s="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="156" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C156" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="157" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C157" s="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="158" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C158" s="1">
+        <v>152</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C159" s="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="160" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C160" s="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="161" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C161" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="162" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C162" s="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="163" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C163" s="1">
+        <v>157</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C164" s="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="165" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C165" s="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="166" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C166" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="167" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C167" s="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="168" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C168" s="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="169" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C169" s="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="170" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C170" s="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="171" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C171" s="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="172" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C172" s="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="173" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C173" s="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="174" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C174" s="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="175" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C175" s="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="176" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C176" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="177" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C177" s="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="178" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C178" s="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="179" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C179" s="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="180" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C180" s="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="181" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C181" s="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="182" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C182" s="1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="183" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C183" s="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="184" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C184" s="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="185" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C185" s="1">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="186" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C186" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="187" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C187" s="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="188" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C188" s="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="189" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C189" s="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="190" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C190" s="1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="191" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C191" s="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="192" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C192" s="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="193" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C193" s="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="194" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C194" s="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="195" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C195" s="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="196" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C196" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="197" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C197" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="198" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C198" s="1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="199" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C199" s="1">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="200" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C200" s="1">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="201" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C201" s="1">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="202" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C202" s="1">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="203" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C203" s="1">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="204" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C204" s="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="205" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C205" s="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="206" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C206" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="207" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C207" s="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="208" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C208" s="1">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="209" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C209" s="1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="210" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C210" s="1">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="211" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C211" s="1">
+        <v>205</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C212" s="1">
+        <v>206</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C213" s="1">
+        <v>207</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C214" s="1">
+        <v>208</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C215" s="1">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="216" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C216" s="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="217" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C217" s="1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="218" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C218" s="1">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="219" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C219" s="1">
+        <v>213</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C220" s="1">
+        <v>214</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C221" s="1">
+        <v>215</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C222" s="1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="223" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C223" s="1">
+        <v>217</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="224" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C224" s="1">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="225" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C225" s="1">
+        <v>219</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="226" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C226" s="1">
+        <v>220</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="227" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C227" s="1">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="228" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C228" s="1">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="229" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C229" s="1">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="230" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C230" s="1">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="231" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C231" s="1">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="232" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C232" s="1">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="233" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C233" s="1">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="234" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C234" s="1">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="235" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C235" s="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="236" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C236" s="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="237" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C237" s="1">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="238" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C238" s="1">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="239" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C239" s="1">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="240" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C240" s="1">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="241" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C241" s="1">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="242" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C242" s="1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="243" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C243" s="1">
+        <v>237</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="244" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C244" s="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="245" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C245" s="1">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="246" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C246" s="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="247" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C247" s="1">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="248" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C248" s="1">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="249" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C249" s="1">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="250" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C250" s="1">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="251" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C251" s="1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="252" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C252" s="1">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="253" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C253" s="1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="254" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C254" s="1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="255" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C255" s="1">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="256" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C256" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="257" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C257" s="1">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="258" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C258" s="1">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="259" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C259" s="1">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="260" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C260" s="1">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="261" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C261" s="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="262" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C262" s="1">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="263" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C263" s="1">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="264" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C264" s="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="265" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C265" s="1">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="266" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C266" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="267" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C267" s="1">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="268" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C268" s="1">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="269" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C269" s="1">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="270" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C270" s="1">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="271" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C271" s="1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="272" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C272" s="1">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="273" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C273" s="1">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="274" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C274" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="275" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C275" s="1">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="276" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C276" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="277" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C277" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="278" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C278" s="1">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="279" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C279" s="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="280" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C280" s="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="281" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C281" s="1">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="282" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C282" s="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="283" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C283" s="1">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="284" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C284" s="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="285" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C285" s="1">
+        <v>279</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="286" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C286" s="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="287" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C287" s="1">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="288" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C288" s="1">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="289" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C289" s="1">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="290" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C290" s="1">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="291" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C291" s="1">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="292" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C292" s="1">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="293" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C293" s="1">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="294" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C294" s="1">
+        <v>288</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="295" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C295" s="1">
+        <v>289</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="296" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C296" s="1">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="297" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C297" s="1">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="298" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C298" s="1">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="299" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C299" s="1">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="300" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C300" s="1">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="301" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C301" s="1">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="302" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C302" s="1">
+        <v>296</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="303" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C303" s="1">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="304" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C304" s="1">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="305" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C305" s="1">
+        <v>299</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="306" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C306" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="307" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C307" s="1">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="308" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C308" s="1">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="309" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C309" s="1">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="310" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C310" s="1">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="311" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C311" s="1">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="312" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C312" s="1">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="313" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C313" s="1">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="314" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C314" s="1">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="315" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C315" s="1">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="316" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C316" s="1">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="317" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C317" s="1">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="318" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C318" s="1">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="319" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C319" s="1">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="320" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C320" s="1">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="321" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C321" s="1">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="322" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C322" s="1">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="323" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C323" s="1">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="324" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C324" s="1">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="325" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C325" s="1">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="326" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C326" s="1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="327" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C327" s="1">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="328" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C328" s="1">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="329" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C329" s="1">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="330" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C330" s="1">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="331" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C331" s="1">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="332" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C332" s="1">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="333" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C333" s="1">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="334" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C334" s="1">
+        <v>328</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E334" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="335" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C335" s="1">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="336" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C336" s="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="337" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C337" s="1">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="338" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C338" s="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="339" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C339" s="1">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="340" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C340" s="1">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="341" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C341" s="1">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="342" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C342" s="1">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="343" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C343" s="1">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="344" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C344" s="1">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="345" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C345" s="1">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="346" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C346" s="1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="347" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C347" s="1">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="348" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C348" s="1">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="349" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C349" s="1">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="350" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C350" s="1">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="351" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C351" s="1">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="352" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C352" s="1">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="353" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C353" s="1">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="354" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C354" s="1">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="355" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C355" s="1">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="356" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C356" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="357" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C357" s="1">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="358" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C358" s="1">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="359" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C359" s="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="360" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C360" s="1">
+        <v>354</v>
+      </c>
+      <c r="D360" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E360" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="361" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C361" s="1">
+        <v>355</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E361" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="362" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C362" s="1">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="363" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C363" s="1">
+        <v>357</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E363" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="364" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C364" s="1">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="365" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C365" s="1">
+        <v>359</v>
+      </c>
+      <c r="D365" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E365" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="366" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C366" s="1">
+        <v>360</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E366" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="367" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C367" s="1">
+        <v>361</v>
+      </c>
+      <c r="D367" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E367" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="368" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C368" s="1">
+        <v>362</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E368" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="369" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C369" s="1">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="370" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C370" s="1">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="371" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C371" s="1">
+        <v>365</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E371" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="372" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C372" s="1">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="373" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C373" s="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="374" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C374" s="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="375" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C375" s="1">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="376" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C376" s="1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="377" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C377" s="1">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="378" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C378" s="1">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="379" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C379" s="1">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="380" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C380" s="1">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="381" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C381" s="1">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="382" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C382" s="1">
+        <v>376</v>
+      </c>
+      <c r="D382" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E382" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="383" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C383" s="1">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="384" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C384" s="1">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="385" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C385" s="1">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="386" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C386" s="1">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="387" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C387" s="1">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="388" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C388" s="1">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="389" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C389" s="1">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="390" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C390" s="1">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="391" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C391" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="392" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C392" s="1">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="393" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C393" s="1">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="394" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C394" s="1">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="395" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C395" s="1">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="396" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C396" s="1">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="397" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C397" s="1">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="398" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C398" s="1">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="399" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C399" s="1">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="400" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C400" s="1">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="401" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C401" s="1">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="402" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C402" s="1">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="403" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C403" s="1">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="404" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C404" s="1">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="405" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C405" s="1">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="406" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C406" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="407" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C407" s="1">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="408" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C408" s="1">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="409" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C409" s="1">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="410" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C410" s="1">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="411" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C411" s="1">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="412" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C412" s="1">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="413" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C413" s="1">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="414" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C414" s="1">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="415" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C415" s="1">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="416" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C416" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="417" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C417" s="1">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="418" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C418" s="1">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="419" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C419" s="1">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="420" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C420" s="1">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="421" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C421" s="1">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="422" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C422" s="1">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="423" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C423" s="1">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="424" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C424" s="1">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="425" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C425" s="1">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="426" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C426" s="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="427" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C427" s="1">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="428" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C428" s="1">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="429" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C429" s="1">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="430" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C430" s="1">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="431" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C431" s="1">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="432" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C432" s="1">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="433" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C433" s="1">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="434" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C434" s="1">
+        <v>428</v>
+      </c>
+      <c r="D434" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E434" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="435" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C435" s="1">
+        <v>429</v>
+      </c>
+      <c r="D435" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E435" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="436" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C436" s="1">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="437" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C437" s="1">
+        <v>431</v>
+      </c>
+      <c r="D437" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E437" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="438" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C438" s="1">
+        <v>432</v>
+      </c>
+      <c r="D438" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E438" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="439" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C439" s="1">
+        <v>433</v>
+      </c>
+      <c r="D439" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E439" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="440" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C440" s="1">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="441" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C441" s="1">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="442" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C442" s="1">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="443" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C443" s="1">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="444" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C444" s="1">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="445" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C445" s="1">
+        <v>439</v>
+      </c>
+      <c r="D445" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E445" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="446" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C446" s="1">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="447" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C447" s="1">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="448" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C448" s="1">
+        <v>442</v>
+      </c>
+      <c r="D448" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E448" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="449" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C449" s="1">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="450" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C450" s="1">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="451" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C451" s="1">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="452" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C452" s="1">
+        <v>446</v>
+      </c>
+      <c r="D452" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E452" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="453" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C453" s="1">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="454" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C454" s="1">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="455" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C455" s="1">
+        <v>449</v>
+      </c>
+      <c r="D455" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E455" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="456" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C456" s="1">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="457" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C457" s="1">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="458" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C458" s="1">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="459" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C459" s="1">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="460" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C460" s="1">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="461" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C461" s="1">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="462" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C462" s="1">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="463" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C463" s="1">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="464" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C464" s="1">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="465" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C465" s="1">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="466" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C466" s="1">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="467" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C467" s="1">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="468" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C468" s="1">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="469" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C469" s="1">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="470" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C470" s="1">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="471" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C471" s="1">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="472" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C472" s="1">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="473" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C473" s="1">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="474" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C474" s="1">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="475" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C475" s="1">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="476" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C476" s="1">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="477" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C477" s="1">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="478" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C478" s="1">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="479" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C479" s="1">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="480" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C480" s="1">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="481" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C481" s="1">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="482" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C482" s="1">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="483" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C483" s="1">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="484" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C484" s="1">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="485" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C485" s="1">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="486" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C486" s="1">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="487" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C487" s="1">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="488" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C488" s="1">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="489" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C489" s="1">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="490" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C490" s="1">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="491" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C491" s="1">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="492" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C492" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="493" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C493" s="1">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="494" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C494" s="1">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="495" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C495" s="1">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="496" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C496" s="1">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="497" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C497" s="1">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="498" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C498" s="1">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="499" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C499" s="1">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="500" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C500" s="1">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="501" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C501" s="1">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="502" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C502" s="1">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="503" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C503" s="1">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="504" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C504" s="1">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="505" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C505" s="1">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="506" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C506" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="507" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C507" s="1">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="508" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C508" s="1">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="509" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C509" s="1">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="510" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C510" s="1">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="511" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C511" s="1">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="512" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C512" s="1">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="513" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C513" s="1">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="514" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C514" s="1">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="515" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C515" s="1">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="516" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C516" s="1">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="517" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C517" s="1">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="518" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C518" s="1">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="519" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C519" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="520" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C520" s="1">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="521" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C521" s="1">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="522" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C522" s="1">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="523" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C523" s="1">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="524" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C524" s="1">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="525" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C525" s="1">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="526" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C526" s="1">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="527" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C527" s="1">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="528" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C528" s="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="529" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C529" s="1">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="530" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C530" s="1">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="531" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C531" s="1">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="532" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C532" s="1">
+        <v>526</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="C6:F532" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Y"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0AB4212-E10D-4B46-A844-0A7EBEF7827B}">
+  <dimension ref="D14:K62"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="16384" width="9.06640625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="14" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D14" s="2">
+        <v>521</v>
+      </c>
+      <c r="E14" s="2">
+        <v>120</v>
+      </c>
+      <c r="F14" s="2">
+        <v>116</v>
+      </c>
+      <c r="G14" s="2">
+        <v>101</v>
+      </c>
+      <c r="H14" s="2">
+        <v>82</v>
+      </c>
+      <c r="I14" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="I15" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="H16" s="2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="G17" s="2">
+        <v>264</v>
+      </c>
+      <c r="H17" s="2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="H18" s="2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="19" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="F19" s="2">
+        <v>199</v>
+      </c>
+      <c r="G19" s="2">
+        <v>484</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="H20" s="2">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="21" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="G21" s="2">
+        <v>184</v>
+      </c>
+      <c r="H21" s="2">
+        <v>161</v>
+      </c>
+      <c r="I21" s="2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="I22" s="2">
+        <v>147</v>
+      </c>
+      <c r="J22" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="J23" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="H24" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="E25" s="2">
+        <v>496</v>
+      </c>
+      <c r="F25" s="2">
+        <v>482</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" s="2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="26" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="H26" s="2">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="27" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="G27" s="2">
+        <v>486</v>
+      </c>
+      <c r="H27" s="2">
+        <v>103</v>
+      </c>
+      <c r="I27" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="I28" s="2">
+        <v>384</v>
+      </c>
+      <c r="J28" s="2">
+        <v>158</v>
+      </c>
+      <c r="K28" s="2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="K29" s="2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="30" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="J30" s="2">
+        <v>386</v>
+      </c>
+      <c r="K30" s="2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="K31" s="2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="32" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="H32" s="2">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="33" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="F33" s="2">
+        <v>498</v>
+      </c>
+      <c r="G33" s="2">
+        <v>495</v>
+      </c>
+      <c r="H33" s="2">
+        <v>488</v>
+      </c>
+      <c r="I33" s="2">
+        <v>477</v>
+      </c>
+      <c r="J33" s="2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="34" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="J34" s="2">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="35" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="I35" s="2">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="36" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="H36" s="2">
+        <v>489</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="I37" s="2">
+        <v>478</v>
+      </c>
+      <c r="J37" s="2">
+        <v>402</v>
+      </c>
+      <c r="K37" s="2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="38" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="K38" s="2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="39" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="J39" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="G40" s="2">
+        <v>390</v>
+      </c>
+      <c r="H40" s="2">
+        <v>176</v>
+      </c>
+      <c r="I40" s="2">
+        <v>83</v>
+      </c>
+      <c r="J40" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="J41" s="2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="42" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="I42" s="2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="43" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="H43" s="2">
+        <v>376</v>
+      </c>
+      <c r="I43" s="2">
+        <v>208</v>
+      </c>
+      <c r="J43" s="2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="44" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="J44" s="2">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="45" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="I45" s="2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="46" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="E46" s="3">
+        <v>503</v>
+      </c>
+      <c r="F46" s="3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="F56" s="3">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="62" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E62" s="3">
+        <v>504</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DQM3.xlsx
+++ b/DQM3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\public_git\fun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4966921-0AB3-40E7-A514-F0D7014828D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8501D035-E967-41A3-93DB-13F2F8C5D724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="96">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -327,6 +327,102 @@
   </si>
   <si>
     <t>460*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霍伊米史莱姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曼德拉草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史莱姆贝斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独角龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆裂龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无齿翼龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒蜥蜴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨蛙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镰鼬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剪刀甲虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨鼠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哥萨克羊男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦貘僧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骄阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂暴狛犬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击鼓幽灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小魔术师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黏液怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美拉鬼魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖怪海星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴影</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -376,15 +472,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -667,18 +760,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="C6:F532"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H76" sqref="H76"/>
+      <pane ySplit="6" topLeftCell="A442" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E448" sqref="E448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="3" width="9.06640625" style="1"/>
-    <col min="4" max="4" width="13.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.53125" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
@@ -707,17 +799,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="3:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C8" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="3:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C9" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="3:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C10" s="1">
         <v>4</v>
       </c>
@@ -728,7 +820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="3:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C11" s="1">
         <v>5</v>
       </c>
@@ -755,27 +847,39 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="3:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C14" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="3:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="D14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C15" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="3:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C16" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="D16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C17" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C18" s="1">
         <v>12</v>
       </c>
@@ -783,10 +887,10 @@
         <v>40</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C19" s="1">
         <v>13</v>
       </c>
@@ -797,259 +901,271 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C20" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C21" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C22" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="D22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C23" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C24" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C25" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C26" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C27" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C28" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C29" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C30" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C31" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C32" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C33" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C34" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C35" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C36" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C37" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C38" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C39" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C40" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C41" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C42" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C43" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C44" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C45" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C46" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C47" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C48" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C49" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C50" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C51" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C52" s="1">
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C53" s="1">
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C54" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C55" s="1">
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C56" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C57" s="1">
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C58" s="1">
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C59" s="1">
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C60" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C61" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C62" s="1">
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C63" s="1">
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C64" s="1">
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C65" s="1">
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C66" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C67" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C68" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C69" s="1">
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C70" s="1">
         <v>64</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="71" spans="3:5" x14ac:dyDescent="0.4">
@@ -1074,14 +1190,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C73" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="74" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C74" s="1">
         <v>68</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="3:5" x14ac:dyDescent="0.4">
@@ -1106,22 +1228,34 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C77" s="1">
         <v>71</v>
       </c>
-    </row>
-    <row r="78" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="D77" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C78" s="1">
         <v>72</v>
       </c>
-    </row>
-    <row r="79" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="D78" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C79" s="1">
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C80" s="1">
         <v>74</v>
       </c>
@@ -1129,15 +1263,15 @@
         <v>43</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="81" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C81" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C82" s="1">
         <v>76</v>
       </c>
@@ -1148,12 +1282,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C83" s="1">
         <v>77</v>
       </c>
     </row>
-    <row r="84" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C84" s="1">
         <v>78</v>
       </c>
@@ -1164,57 +1298,63 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C85" s="1">
         <v>79</v>
       </c>
     </row>
-    <row r="86" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C86" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="87" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C87" s="1">
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C88" s="1">
         <v>82</v>
       </c>
     </row>
-    <row r="89" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C89" s="1">
         <v>83</v>
       </c>
     </row>
-    <row r="90" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C90" s="1">
         <v>84</v>
       </c>
     </row>
-    <row r="91" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C91" s="1">
         <v>85</v>
       </c>
     </row>
-    <row r="92" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C92" s="1">
         <v>86</v>
       </c>
     </row>
-    <row r="93" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C93" s="1">
         <v>87</v>
       </c>
-    </row>
-    <row r="94" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="D93" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="94" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C94" s="1">
         <v>88</v>
       </c>
     </row>
-    <row r="95" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C95" s="1">
         <v>89</v>
       </c>
@@ -1225,232 +1365,232 @@
         <v>41</v>
       </c>
     </row>
-    <row r="96" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C96" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="97" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C97" s="1">
         <v>91</v>
       </c>
     </row>
-    <row r="98" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C98" s="1">
         <v>92</v>
       </c>
     </row>
-    <row r="99" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C99" s="1">
         <v>93</v>
       </c>
     </row>
-    <row r="100" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C100" s="1">
         <v>94</v>
       </c>
     </row>
-    <row r="101" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C101" s="1">
         <v>95</v>
       </c>
     </row>
-    <row r="102" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C102" s="1">
         <v>96</v>
       </c>
     </row>
-    <row r="103" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C103" s="1">
         <v>97</v>
       </c>
     </row>
-    <row r="104" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C104" s="1">
         <v>98</v>
       </c>
     </row>
-    <row r="105" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C105" s="1">
         <v>99</v>
       </c>
     </row>
-    <row r="106" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C106" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C107" s="1">
         <v>101</v>
       </c>
     </row>
-    <row r="108" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C108" s="1">
         <v>102</v>
       </c>
     </row>
-    <row r="109" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C109" s="1">
         <v>103</v>
       </c>
     </row>
-    <row r="110" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C110" s="1">
         <v>104</v>
       </c>
     </row>
-    <row r="111" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C111" s="1">
         <v>105</v>
       </c>
     </row>
-    <row r="112" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C112" s="1">
         <v>106</v>
       </c>
     </row>
-    <row r="113" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C113" s="1">
         <v>107</v>
       </c>
     </row>
-    <row r="114" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C114" s="1">
         <v>108</v>
       </c>
     </row>
-    <row r="115" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C115" s="1">
         <v>109</v>
       </c>
     </row>
-    <row r="116" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C116" s="1">
         <v>110</v>
       </c>
     </row>
-    <row r="117" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C117" s="1">
         <v>111</v>
       </c>
     </row>
-    <row r="118" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C118" s="1">
         <v>112</v>
       </c>
     </row>
-    <row r="119" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C119" s="1">
         <v>113</v>
       </c>
     </row>
-    <row r="120" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C120" s="1">
         <v>114</v>
       </c>
     </row>
-    <row r="121" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C121" s="1">
         <v>115</v>
       </c>
     </row>
-    <row r="122" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C122" s="1">
         <v>116</v>
       </c>
     </row>
-    <row r="123" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C123" s="1">
         <v>117</v>
       </c>
     </row>
-    <row r="124" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C124" s="1">
         <v>118</v>
       </c>
     </row>
-    <row r="125" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C125" s="1">
         <v>119</v>
       </c>
     </row>
-    <row r="126" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C126" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="127" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C127" s="1">
         <v>121</v>
       </c>
     </row>
-    <row r="128" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C128" s="1">
         <v>122</v>
       </c>
     </row>
-    <row r="129" spans="3:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C129" s="1">
         <v>123</v>
       </c>
     </row>
-    <row r="130" spans="3:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C130" s="1">
         <v>124</v>
       </c>
     </row>
-    <row r="131" spans="3:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C131" s="1">
         <v>125</v>
       </c>
     </row>
-    <row r="132" spans="3:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C132" s="1">
         <v>126</v>
       </c>
     </row>
-    <row r="133" spans="3:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C133" s="1">
         <v>127</v>
       </c>
     </row>
-    <row r="134" spans="3:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C134" s="1">
         <v>128</v>
       </c>
     </row>
-    <row r="135" spans="3:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C135" s="1">
         <v>129</v>
       </c>
     </row>
-    <row r="136" spans="3:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C136" s="1">
         <v>130</v>
       </c>
     </row>
-    <row r="137" spans="3:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C137" s="1">
         <v>131</v>
       </c>
     </row>
-    <row r="138" spans="3:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C138" s="1">
         <v>132</v>
       </c>
     </row>
-    <row r="139" spans="3:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C139" s="1">
         <v>133</v>
       </c>
     </row>
-    <row r="140" spans="3:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C140" s="1">
         <v>134</v>
       </c>
     </row>
-    <row r="141" spans="3:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C141" s="1">
         <v>135</v>
       </c>
@@ -1458,7 +1598,7 @@
         <v>45</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142" spans="3:6" x14ac:dyDescent="0.4">
@@ -1541,7 +1681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C149" s="1">
         <v>143</v>
       </c>
@@ -1563,12 +1703,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C151" s="1">
         <v>145</v>
       </c>
-    </row>
-    <row r="152" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="D151" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="152" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C152" s="1">
         <v>146</v>
       </c>
@@ -1579,32 +1725,38 @@
         <v>41</v>
       </c>
     </row>
-    <row r="153" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C153" s="1">
         <v>147</v>
       </c>
     </row>
-    <row r="154" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C154" s="1">
         <v>148</v>
       </c>
-    </row>
-    <row r="155" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="D154" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="155" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C155" s="1">
         <v>149</v>
       </c>
     </row>
-    <row r="156" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C156" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="157" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C157" s="1">
         <v>151</v>
       </c>
     </row>
-    <row r="158" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C158" s="1">
         <v>152</v>
       </c>
@@ -1615,27 +1767,33 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C159" s="1">
         <v>153</v>
       </c>
     </row>
-    <row r="160" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C160" s="1">
         <v>154</v>
       </c>
-    </row>
-    <row r="161" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="D160" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="161" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C161" s="1">
         <v>155</v>
       </c>
     </row>
-    <row r="162" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C162" s="1">
         <v>156</v>
       </c>
     </row>
-    <row r="163" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C163" s="1">
         <v>157</v>
       </c>
@@ -1646,237 +1804,237 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C164" s="1">
         <v>158</v>
       </c>
     </row>
-    <row r="165" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C165" s="1">
         <v>159</v>
       </c>
     </row>
-    <row r="166" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C166" s="1">
         <v>160</v>
       </c>
     </row>
-    <row r="167" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C167" s="1">
         <v>161</v>
       </c>
     </row>
-    <row r="168" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C168" s="1">
         <v>162</v>
       </c>
     </row>
-    <row r="169" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C169" s="1">
         <v>163</v>
       </c>
     </row>
-    <row r="170" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C170" s="1">
         <v>164</v>
       </c>
     </row>
-    <row r="171" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C171" s="1">
         <v>165</v>
       </c>
     </row>
-    <row r="172" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C172" s="1">
         <v>166</v>
       </c>
     </row>
-    <row r="173" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C173" s="1">
         <v>167</v>
       </c>
     </row>
-    <row r="174" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C174" s="1">
         <v>168</v>
       </c>
     </row>
-    <row r="175" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C175" s="1">
         <v>169</v>
       </c>
     </row>
-    <row r="176" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C176" s="1">
         <v>170</v>
       </c>
     </row>
-    <row r="177" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C177" s="1">
         <v>171</v>
       </c>
     </row>
-    <row r="178" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C178" s="1">
         <v>172</v>
       </c>
     </row>
-    <row r="179" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C179" s="1">
         <v>173</v>
       </c>
     </row>
-    <row r="180" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C180" s="1">
         <v>174</v>
       </c>
     </row>
-    <row r="181" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C181" s="1">
         <v>175</v>
       </c>
     </row>
-    <row r="182" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C182" s="1">
         <v>176</v>
       </c>
     </row>
-    <row r="183" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C183" s="1">
         <v>177</v>
       </c>
     </row>
-    <row r="184" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C184" s="1">
         <v>178</v>
       </c>
     </row>
-    <row r="185" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C185" s="1">
         <v>179</v>
       </c>
     </row>
-    <row r="186" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C186" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="187" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C187" s="1">
         <v>181</v>
       </c>
     </row>
-    <row r="188" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C188" s="1">
         <v>182</v>
       </c>
     </row>
-    <row r="189" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C189" s="1">
         <v>183</v>
       </c>
     </row>
-    <row r="190" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C190" s="1">
         <v>184</v>
       </c>
     </row>
-    <row r="191" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C191" s="1">
         <v>185</v>
       </c>
     </row>
-    <row r="192" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C192" s="1">
         <v>186</v>
       </c>
     </row>
-    <row r="193" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C193" s="1">
         <v>187</v>
       </c>
     </row>
-    <row r="194" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C194" s="1">
         <v>188</v>
       </c>
     </row>
-    <row r="195" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C195" s="1">
         <v>189</v>
       </c>
     </row>
-    <row r="196" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C196" s="1">
         <v>190</v>
       </c>
     </row>
-    <row r="197" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C197" s="1">
         <v>191</v>
       </c>
     </row>
-    <row r="198" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C198" s="1">
         <v>192</v>
       </c>
     </row>
-    <row r="199" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C199" s="1">
         <v>193</v>
       </c>
     </row>
-    <row r="200" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C200" s="1">
         <v>194</v>
       </c>
     </row>
-    <row r="201" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C201" s="1">
         <v>195</v>
       </c>
     </row>
-    <row r="202" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C202" s="1">
         <v>196</v>
       </c>
     </row>
-    <row r="203" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C203" s="1">
         <v>197</v>
       </c>
     </row>
-    <row r="204" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C204" s="1">
         <v>198</v>
       </c>
     </row>
-    <row r="205" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C205" s="1">
         <v>199</v>
       </c>
     </row>
-    <row r="206" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C206" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="207" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C207" s="1">
         <v>201</v>
       </c>
     </row>
-    <row r="208" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C208" s="1">
         <v>202</v>
       </c>
     </row>
-    <row r="209" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C209" s="1">
         <v>203</v>
       </c>
     </row>
-    <row r="210" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C210" s="1">
         <v>204</v>
       </c>
@@ -1914,7 +2072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C214" s="1">
         <v>208</v>
       </c>
@@ -1925,22 +2083,34 @@
         <v>6</v>
       </c>
     </row>
-    <row r="215" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C215" s="1">
         <v>209</v>
       </c>
-    </row>
-    <row r="216" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="D215" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="216" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C216" s="1">
         <v>210</v>
       </c>
-    </row>
-    <row r="217" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="D216" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="217" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C217" s="1">
         <v>211</v>
       </c>
     </row>
-    <row r="218" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C218" s="1">
         <v>212</v>
       </c>
@@ -1956,7 +2126,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C220" s="1">
         <v>214</v>
       </c>
@@ -1967,7 +2137,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="221" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C221" s="1">
         <v>215</v>
       </c>
@@ -1978,12 +2148,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C222" s="1">
         <v>216</v>
       </c>
     </row>
-    <row r="223" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C223" s="1">
         <v>217</v>
       </c>
@@ -1994,12 +2164,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="224" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C224" s="1">
         <v>218</v>
       </c>
     </row>
-    <row r="225" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C225" s="1">
         <v>219</v>
       </c>
@@ -2007,10 +2177,10 @@
         <v>52</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="226" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C226" s="1">
         <v>220</v>
       </c>
@@ -2021,87 +2191,93 @@
         <v>41</v>
       </c>
     </row>
-    <row r="227" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C227" s="1">
         <v>221</v>
       </c>
     </row>
-    <row r="228" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C228" s="1">
         <v>222</v>
       </c>
     </row>
-    <row r="229" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C229" s="1">
         <v>223</v>
       </c>
     </row>
-    <row r="230" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C230" s="1">
         <v>224</v>
       </c>
     </row>
-    <row r="231" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C231" s="1">
         <v>225</v>
       </c>
     </row>
-    <row r="232" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C232" s="1">
         <v>226</v>
       </c>
-    </row>
-    <row r="233" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="D232" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="233" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C233" s="1">
         <v>227</v>
       </c>
     </row>
-    <row r="234" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C234" s="1">
         <v>228</v>
       </c>
     </row>
-    <row r="235" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C235" s="1">
         <v>229</v>
       </c>
     </row>
-    <row r="236" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C236" s="1">
         <v>230</v>
       </c>
     </row>
-    <row r="237" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C237" s="1">
         <v>231</v>
       </c>
     </row>
-    <row r="238" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C238" s="1">
         <v>232</v>
       </c>
     </row>
-    <row r="239" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C239" s="1">
         <v>233</v>
       </c>
     </row>
-    <row r="240" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C240" s="1">
         <v>234</v>
       </c>
     </row>
-    <row r="241" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C241" s="1">
         <v>235</v>
       </c>
     </row>
-    <row r="242" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C242" s="1">
         <v>236</v>
       </c>
     </row>
-    <row r="243" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C243" s="1">
         <v>237</v>
       </c>
@@ -2112,212 +2288,212 @@
         <v>41</v>
       </c>
     </row>
-    <row r="244" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C244" s="1">
         <v>238</v>
       </c>
     </row>
-    <row r="245" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C245" s="1">
         <v>239</v>
       </c>
     </row>
-    <row r="246" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C246" s="1">
         <v>240</v>
       </c>
     </row>
-    <row r="247" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C247" s="1">
         <v>241</v>
       </c>
     </row>
-    <row r="248" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="248" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C248" s="1">
         <v>242</v>
       </c>
     </row>
-    <row r="249" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="249" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C249" s="1">
         <v>243</v>
       </c>
     </row>
-    <row r="250" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="250" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C250" s="1">
         <v>244</v>
       </c>
     </row>
-    <row r="251" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="251" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C251" s="1">
         <v>245</v>
       </c>
     </row>
-    <row r="252" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="252" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C252" s="1">
         <v>246</v>
       </c>
     </row>
-    <row r="253" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="253" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C253" s="1">
         <v>247</v>
       </c>
     </row>
-    <row r="254" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="254" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C254" s="1">
         <v>248</v>
       </c>
     </row>
-    <row r="255" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="255" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C255" s="1">
         <v>249</v>
       </c>
     </row>
-    <row r="256" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="256" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C256" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="257" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="257" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C257" s="1">
         <v>251</v>
       </c>
     </row>
-    <row r="258" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="258" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C258" s="1">
         <v>252</v>
       </c>
     </row>
-    <row r="259" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="259" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C259" s="1">
         <v>253</v>
       </c>
     </row>
-    <row r="260" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="260" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C260" s="1">
         <v>254</v>
       </c>
     </row>
-    <row r="261" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="261" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C261" s="1">
         <v>255</v>
       </c>
     </row>
-    <row r="262" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="262" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C262" s="1">
         <v>256</v>
       </c>
     </row>
-    <row r="263" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="263" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C263" s="1">
         <v>257</v>
       </c>
     </row>
-    <row r="264" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="264" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C264" s="1">
         <v>258</v>
       </c>
     </row>
-    <row r="265" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="265" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C265" s="1">
         <v>259</v>
       </c>
     </row>
-    <row r="266" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="266" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C266" s="1">
         <v>260</v>
       </c>
     </row>
-    <row r="267" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="267" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C267" s="1">
         <v>261</v>
       </c>
     </row>
-    <row r="268" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="268" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C268" s="1">
         <v>262</v>
       </c>
     </row>
-    <row r="269" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="269" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C269" s="1">
         <v>263</v>
       </c>
     </row>
-    <row r="270" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="270" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C270" s="1">
         <v>264</v>
       </c>
     </row>
-    <row r="271" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="271" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C271" s="1">
         <v>265</v>
       </c>
     </row>
-    <row r="272" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="272" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C272" s="1">
         <v>266</v>
       </c>
     </row>
-    <row r="273" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="273" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C273" s="1">
         <v>267</v>
       </c>
     </row>
-    <row r="274" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="274" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C274" s="1">
         <v>268</v>
       </c>
     </row>
-    <row r="275" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="275" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C275" s="1">
         <v>269</v>
       </c>
     </row>
-    <row r="276" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="276" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C276" s="1">
         <v>270</v>
       </c>
     </row>
-    <row r="277" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="277" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C277" s="1">
         <v>271</v>
       </c>
     </row>
-    <row r="278" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="278" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C278" s="1">
         <v>272</v>
       </c>
     </row>
-    <row r="279" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="279" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C279" s="1">
         <v>273</v>
       </c>
     </row>
-    <row r="280" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="280" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C280" s="1">
         <v>274</v>
       </c>
     </row>
-    <row r="281" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="281" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C281" s="1">
         <v>275</v>
       </c>
     </row>
-    <row r="282" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="282" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C282" s="1">
         <v>276</v>
       </c>
     </row>
-    <row r="283" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="283" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C283" s="1">
         <v>277</v>
       </c>
     </row>
-    <row r="284" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="284" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C284" s="1">
         <v>278</v>
       </c>
     </row>
-    <row r="285" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="285" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C285" s="1">
         <v>279</v>
       </c>
@@ -2328,47 +2504,53 @@
         <v>41</v>
       </c>
     </row>
-    <row r="286" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="286" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C286" s="1">
         <v>280</v>
       </c>
     </row>
-    <row r="287" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="287" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C287" s="1">
         <v>281</v>
       </c>
     </row>
-    <row r="288" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="288" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C288" s="1">
         <v>282</v>
       </c>
-    </row>
-    <row r="289" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="D288" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="289" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C289" s="1">
         <v>283</v>
       </c>
     </row>
-    <row r="290" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="290" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C290" s="1">
         <v>284</v>
       </c>
     </row>
-    <row r="291" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="291" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C291" s="1">
         <v>285</v>
       </c>
     </row>
-    <row r="292" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="292" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C292" s="1">
         <v>286</v>
       </c>
     </row>
-    <row r="293" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="293" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C293" s="1">
         <v>287</v>
       </c>
     </row>
-    <row r="294" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="294" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C294" s="1">
         <v>288</v>
       </c>
@@ -2376,10 +2558,10 @@
         <v>56</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="295" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C295" s="1">
         <v>289</v>
       </c>
@@ -2390,37 +2572,49 @@
         <v>41</v>
       </c>
     </row>
-    <row r="296" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="296" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C296" s="1">
         <v>290</v>
       </c>
-    </row>
-    <row r="297" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="D296" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="297" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C297" s="1">
         <v>291</v>
       </c>
     </row>
-    <row r="298" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="298" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C298" s="1">
         <v>292</v>
       </c>
     </row>
-    <row r="299" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="299" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C299" s="1">
         <v>293</v>
       </c>
     </row>
-    <row r="300" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="300" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C300" s="1">
         <v>294</v>
       </c>
-    </row>
-    <row r="301" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="D300" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="301" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C301" s="1">
         <v>295</v>
       </c>
     </row>
-    <row r="302" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="302" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C302" s="1">
         <v>296</v>
       </c>
@@ -2431,17 +2625,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="303" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="303" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C303" s="1">
         <v>297</v>
       </c>
     </row>
-    <row r="304" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="304" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C304" s="1">
         <v>298</v>
       </c>
     </row>
-    <row r="305" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="305" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C305" s="1">
         <v>299</v>
       </c>
@@ -2452,147 +2646,147 @@
         <v>41</v>
       </c>
     </row>
-    <row r="306" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="306" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C306" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="307" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="307" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C307" s="1">
         <v>301</v>
       </c>
     </row>
-    <row r="308" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="308" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C308" s="1">
         <v>302</v>
       </c>
     </row>
-    <row r="309" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="309" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C309" s="1">
         <v>303</v>
       </c>
     </row>
-    <row r="310" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="310" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C310" s="1">
         <v>304</v>
       </c>
     </row>
-    <row r="311" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="311" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C311" s="1">
         <v>305</v>
       </c>
     </row>
-    <row r="312" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="312" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C312" s="1">
         <v>306</v>
       </c>
     </row>
-    <row r="313" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="313" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C313" s="1">
         <v>307</v>
       </c>
     </row>
-    <row r="314" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="314" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C314" s="1">
         <v>308</v>
       </c>
     </row>
-    <row r="315" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="315" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C315" s="1">
         <v>309</v>
       </c>
     </row>
-    <row r="316" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="316" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C316" s="1">
         <v>310</v>
       </c>
     </row>
-    <row r="317" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="317" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C317" s="1">
         <v>311</v>
       </c>
     </row>
-    <row r="318" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="318" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C318" s="1">
         <v>312</v>
       </c>
     </row>
-    <row r="319" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="319" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C319" s="1">
         <v>313</v>
       </c>
     </row>
-    <row r="320" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="320" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C320" s="1">
         <v>314</v>
       </c>
     </row>
-    <row r="321" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="321" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C321" s="1">
         <v>315</v>
       </c>
     </row>
-    <row r="322" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="322" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C322" s="1">
         <v>316</v>
       </c>
     </row>
-    <row r="323" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="323" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C323" s="1">
         <v>317</v>
       </c>
     </row>
-    <row r="324" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="324" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C324" s="1">
         <v>318</v>
       </c>
     </row>
-    <row r="325" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="325" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C325" s="1">
         <v>319</v>
       </c>
     </row>
-    <row r="326" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="326" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C326" s="1">
         <v>320</v>
       </c>
     </row>
-    <row r="327" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="327" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C327" s="1">
         <v>321</v>
       </c>
     </row>
-    <row r="328" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="328" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C328" s="1">
         <v>322</v>
       </c>
     </row>
-    <row r="329" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="329" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C329" s="1">
         <v>323</v>
       </c>
     </row>
-    <row r="330" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="330" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C330" s="1">
         <v>324</v>
       </c>
     </row>
-    <row r="331" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="331" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C331" s="1">
         <v>325</v>
       </c>
     </row>
-    <row r="332" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="332" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C332" s="1">
         <v>326</v>
       </c>
     </row>
-    <row r="333" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="333" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C333" s="1">
         <v>327</v>
       </c>
     </row>
-    <row r="334" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="334" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C334" s="1">
         <v>328</v>
       </c>
@@ -2603,127 +2797,127 @@
         <v>41</v>
       </c>
     </row>
-    <row r="335" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="335" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C335" s="1">
         <v>329</v>
       </c>
     </row>
-    <row r="336" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="336" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C336" s="1">
         <v>330</v>
       </c>
     </row>
-    <row r="337" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="337" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C337" s="1">
         <v>331</v>
       </c>
     </row>
-    <row r="338" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="338" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C338" s="1">
         <v>332</v>
       </c>
     </row>
-    <row r="339" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="339" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C339" s="1">
         <v>333</v>
       </c>
     </row>
-    <row r="340" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="340" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C340" s="1">
         <v>334</v>
       </c>
     </row>
-    <row r="341" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="341" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C341" s="1">
         <v>335</v>
       </c>
     </row>
-    <row r="342" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="342" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C342" s="1">
         <v>336</v>
       </c>
     </row>
-    <row r="343" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="343" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C343" s="1">
         <v>337</v>
       </c>
     </row>
-    <row r="344" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="344" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C344" s="1">
         <v>338</v>
       </c>
     </row>
-    <row r="345" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="345" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C345" s="1">
         <v>339</v>
       </c>
     </row>
-    <row r="346" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="346" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C346" s="1">
         <v>340</v>
       </c>
     </row>
-    <row r="347" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="347" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C347" s="1">
         <v>341</v>
       </c>
     </row>
-    <row r="348" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="348" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C348" s="1">
         <v>342</v>
       </c>
     </row>
-    <row r="349" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="349" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C349" s="1">
         <v>343</v>
       </c>
     </row>
-    <row r="350" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="350" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C350" s="1">
         <v>344</v>
       </c>
     </row>
-    <row r="351" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="351" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C351" s="1">
         <v>345</v>
       </c>
     </row>
-    <row r="352" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="352" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C352" s="1">
         <v>346</v>
       </c>
     </row>
-    <row r="353" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="353" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C353" s="1">
         <v>347</v>
       </c>
     </row>
-    <row r="354" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="354" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C354" s="1">
         <v>348</v>
       </c>
     </row>
-    <row r="355" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="355" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C355" s="1">
         <v>349</v>
       </c>
     </row>
-    <row r="356" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="356" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C356" s="1">
         <v>350</v>
       </c>
     </row>
-    <row r="357" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="357" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C357" s="1">
         <v>351</v>
       </c>
     </row>
-    <row r="358" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="358" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C358" s="1">
         <v>352</v>
       </c>
     </row>
-    <row r="359" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="359" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C359" s="1">
         <v>353</v>
       </c>
@@ -2750,12 +2944,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="362" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C362" s="1">
         <v>356</v>
       </c>
     </row>
-    <row r="363" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="363" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C363" s="1">
         <v>357</v>
       </c>
@@ -2766,9 +2960,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="364" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="364" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C364" s="1">
         <v>358</v>
+      </c>
+      <c r="D364" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E364" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="365" spans="3:5" x14ac:dyDescent="0.4">
@@ -2804,7 +3004,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="368" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="368" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C368" s="1">
         <v>362</v>
       </c>
@@ -2815,17 +3015,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="369" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="369" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C369" s="1">
         <v>363</v>
       </c>
     </row>
-    <row r="370" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="370" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C370" s="1">
         <v>364</v>
       </c>
     </row>
-    <row r="371" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="371" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C371" s="1">
         <v>365</v>
       </c>
@@ -2836,57 +3036,57 @@
         <v>41</v>
       </c>
     </row>
-    <row r="372" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="372" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C372" s="1">
         <v>366</v>
       </c>
     </row>
-    <row r="373" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="373" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C373" s="1">
         <v>367</v>
       </c>
     </row>
-    <row r="374" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="374" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C374" s="1">
         <v>368</v>
       </c>
     </row>
-    <row r="375" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="375" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C375" s="1">
         <v>369</v>
       </c>
     </row>
-    <row r="376" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="376" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C376" s="1">
         <v>370</v>
       </c>
     </row>
-    <row r="377" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="377" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C377" s="1">
         <v>371</v>
       </c>
     </row>
-    <row r="378" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="378" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C378" s="1">
         <v>372</v>
       </c>
     </row>
-    <row r="379" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="379" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C379" s="1">
         <v>373</v>
       </c>
     </row>
-    <row r="380" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="380" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C380" s="1">
         <v>374</v>
       </c>
     </row>
-    <row r="381" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="381" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C381" s="1">
         <v>375</v>
       </c>
     </row>
-    <row r="382" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="382" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C382" s="1">
         <v>376</v>
       </c>
@@ -2897,257 +3097,257 @@
         <v>6</v>
       </c>
     </row>
-    <row r="383" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="383" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C383" s="1">
         <v>377</v>
       </c>
     </row>
-    <row r="384" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="384" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C384" s="1">
         <v>378</v>
       </c>
     </row>
-    <row r="385" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="385" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C385" s="1">
         <v>379</v>
       </c>
     </row>
-    <row r="386" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="386" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C386" s="1">
         <v>380</v>
       </c>
     </row>
-    <row r="387" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="387" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C387" s="1">
         <v>381</v>
       </c>
     </row>
-    <row r="388" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="388" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C388" s="1">
         <v>382</v>
       </c>
     </row>
-    <row r="389" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="389" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C389" s="1">
         <v>383</v>
       </c>
     </row>
-    <row r="390" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="390" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C390" s="1">
         <v>384</v>
       </c>
     </row>
-    <row r="391" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="391" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C391" s="1">
         <v>385</v>
       </c>
     </row>
-    <row r="392" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="392" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C392" s="1">
         <v>386</v>
       </c>
     </row>
-    <row r="393" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="393" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C393" s="1">
         <v>387</v>
       </c>
     </row>
-    <row r="394" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="394" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C394" s="1">
         <v>388</v>
       </c>
     </row>
-    <row r="395" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="395" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C395" s="1">
         <v>389</v>
       </c>
     </row>
-    <row r="396" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="396" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C396" s="1">
         <v>390</v>
       </c>
     </row>
-    <row r="397" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="397" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C397" s="1">
         <v>391</v>
       </c>
     </row>
-    <row r="398" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="398" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C398" s="1">
         <v>392</v>
       </c>
     </row>
-    <row r="399" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="399" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C399" s="1">
         <v>393</v>
       </c>
     </row>
-    <row r="400" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="400" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C400" s="1">
         <v>394</v>
       </c>
     </row>
-    <row r="401" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="401" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C401" s="1">
         <v>395</v>
       </c>
     </row>
-    <row r="402" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="402" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C402" s="1">
         <v>396</v>
       </c>
     </row>
-    <row r="403" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="403" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C403" s="1">
         <v>397</v>
       </c>
     </row>
-    <row r="404" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="404" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C404" s="1">
         <v>398</v>
       </c>
     </row>
-    <row r="405" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="405" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C405" s="1">
         <v>399</v>
       </c>
     </row>
-    <row r="406" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="406" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C406" s="1">
         <v>400</v>
       </c>
     </row>
-    <row r="407" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="407" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C407" s="1">
         <v>401</v>
       </c>
     </row>
-    <row r="408" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="408" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C408" s="1">
         <v>402</v>
       </c>
     </row>
-    <row r="409" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="409" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C409" s="1">
         <v>403</v>
       </c>
     </row>
-    <row r="410" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="410" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C410" s="1">
         <v>404</v>
       </c>
     </row>
-    <row r="411" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="411" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C411" s="1">
         <v>405</v>
       </c>
     </row>
-    <row r="412" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="412" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C412" s="1">
         <v>406</v>
       </c>
     </row>
-    <row r="413" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="413" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C413" s="1">
         <v>407</v>
       </c>
     </row>
-    <row r="414" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="414" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C414" s="1">
         <v>408</v>
       </c>
     </row>
-    <row r="415" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="415" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C415" s="1">
         <v>409</v>
       </c>
     </row>
-    <row r="416" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="416" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C416" s="1">
         <v>410</v>
       </c>
     </row>
-    <row r="417" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="417" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C417" s="1">
         <v>411</v>
       </c>
     </row>
-    <row r="418" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="418" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C418" s="1">
         <v>412</v>
       </c>
     </row>
-    <row r="419" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="419" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C419" s="1">
         <v>413</v>
       </c>
     </row>
-    <row r="420" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="420" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C420" s="1">
         <v>414</v>
       </c>
     </row>
-    <row r="421" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="421" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C421" s="1">
         <v>415</v>
       </c>
     </row>
-    <row r="422" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="422" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C422" s="1">
         <v>416</v>
       </c>
     </row>
-    <row r="423" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="423" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C423" s="1">
         <v>417</v>
       </c>
     </row>
-    <row r="424" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="424" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C424" s="1">
         <v>418</v>
       </c>
     </row>
-    <row r="425" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="425" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C425" s="1">
         <v>419</v>
       </c>
     </row>
-    <row r="426" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="426" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C426" s="1">
         <v>420</v>
       </c>
     </row>
-    <row r="427" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="427" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C427" s="1">
         <v>421</v>
       </c>
     </row>
-    <row r="428" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="428" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C428" s="1">
         <v>422</v>
       </c>
     </row>
-    <row r="429" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="429" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C429" s="1">
         <v>423</v>
       </c>
     </row>
-    <row r="430" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="430" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C430" s="1">
         <v>424</v>
       </c>
     </row>
-    <row r="431" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="431" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C431" s="1">
         <v>425</v>
       </c>
     </row>
-    <row r="432" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="432" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C432" s="1">
         <v>426</v>
       </c>
     </row>
-    <row r="433" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="433" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C433" s="1">
         <v>427</v>
       </c>
@@ -3174,7 +3374,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="436" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="436" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C436" s="1">
         <v>430</v>
       </c>
@@ -3212,32 +3412,50 @@
         <v>39</v>
       </c>
     </row>
-    <row r="440" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="440" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C440" s="1">
         <v>434</v>
       </c>
     </row>
-    <row r="441" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="441" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C441" s="1">
         <v>435</v>
       </c>
-    </row>
-    <row r="442" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="D441" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E441" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="442" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C442" s="1">
         <v>436</v>
       </c>
     </row>
-    <row r="443" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="443" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C443" s="1">
         <v>437</v>
       </c>
-    </row>
-    <row r="444" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="D443" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E443" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="444" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C444" s="1">
         <v>438</v>
       </c>
-    </row>
-    <row r="445" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="D444" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E444" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="445" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C445" s="1">
         <v>439</v>
       </c>
@@ -3248,17 +3466,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="446" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="446" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C446" s="1">
         <v>440</v>
       </c>
     </row>
-    <row r="447" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="447" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C447" s="1">
         <v>441</v>
       </c>
-    </row>
-    <row r="448" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="D447" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E447" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="448" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C448" s="1">
         <v>442</v>
       </c>
@@ -3269,22 +3493,22 @@
         <v>41</v>
       </c>
     </row>
-    <row r="449" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="449" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C449" s="1">
         <v>443</v>
       </c>
     </row>
-    <row r="450" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="450" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C450" s="1">
         <v>444</v>
       </c>
     </row>
-    <row r="451" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="451" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C451" s="1">
         <v>445</v>
       </c>
     </row>
-    <row r="452" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="452" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C452" s="1">
         <v>446</v>
       </c>
@@ -3295,17 +3519,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="453" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="453" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C453" s="1">
         <v>447</v>
       </c>
     </row>
-    <row r="454" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="454" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C454" s="1">
         <v>448</v>
       </c>
     </row>
-    <row r="455" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="455" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C455" s="1">
         <v>449</v>
       </c>
@@ -3316,399 +3540,393 @@
         <v>41</v>
       </c>
     </row>
-    <row r="456" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="456" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C456" s="1">
         <v>450</v>
       </c>
     </row>
-    <row r="457" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="457" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C457" s="1">
         <v>451</v>
       </c>
     </row>
-    <row r="458" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="458" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C458" s="1">
         <v>452</v>
       </c>
     </row>
-    <row r="459" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="459" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C459" s="1">
         <v>453</v>
       </c>
     </row>
-    <row r="460" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="460" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C460" s="1">
         <v>454</v>
       </c>
     </row>
-    <row r="461" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="461" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C461" s="1">
         <v>455</v>
       </c>
     </row>
-    <row r="462" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="462" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C462" s="1">
         <v>456</v>
       </c>
     </row>
-    <row r="463" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="463" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C463" s="1">
         <v>457</v>
       </c>
     </row>
-    <row r="464" spans="3:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="464" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C464" s="1">
         <v>458</v>
       </c>
     </row>
-    <row r="465" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="465" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C465" s="1">
         <v>459</v>
       </c>
     </row>
-    <row r="466" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="466" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C466" s="1">
         <v>460</v>
       </c>
     </row>
-    <row r="467" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="467" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C467" s="1">
         <v>461</v>
       </c>
     </row>
-    <row r="468" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="468" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C468" s="1">
         <v>462</v>
       </c>
     </row>
-    <row r="469" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="469" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C469" s="1">
         <v>463</v>
       </c>
     </row>
-    <row r="470" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="470" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C470" s="1">
         <v>464</v>
       </c>
     </row>
-    <row r="471" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="471" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C471" s="1">
         <v>465</v>
       </c>
     </row>
-    <row r="472" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="472" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C472" s="1">
         <v>466</v>
       </c>
     </row>
-    <row r="473" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="473" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C473" s="1">
         <v>467</v>
       </c>
     </row>
-    <row r="474" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="474" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C474" s="1">
         <v>468</v>
       </c>
     </row>
-    <row r="475" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="475" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C475" s="1">
         <v>469</v>
       </c>
     </row>
-    <row r="476" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="476" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C476" s="1">
         <v>470</v>
       </c>
     </row>
-    <row r="477" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="477" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C477" s="1">
         <v>471</v>
       </c>
     </row>
-    <row r="478" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="478" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C478" s="1">
         <v>472</v>
       </c>
     </row>
-    <row r="479" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="479" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C479" s="1">
         <v>473</v>
       </c>
     </row>
-    <row r="480" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="480" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C480" s="1">
         <v>474</v>
       </c>
     </row>
-    <row r="481" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="481" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C481" s="1">
         <v>475</v>
       </c>
     </row>
-    <row r="482" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="482" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C482" s="1">
         <v>476</v>
       </c>
     </row>
-    <row r="483" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="483" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C483" s="1">
         <v>477</v>
       </c>
     </row>
-    <row r="484" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="484" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C484" s="1">
         <v>478</v>
       </c>
     </row>
-    <row r="485" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="485" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C485" s="1">
         <v>479</v>
       </c>
     </row>
-    <row r="486" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="486" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C486" s="1">
         <v>480</v>
       </c>
     </row>
-    <row r="487" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="487" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C487" s="1">
         <v>481</v>
       </c>
     </row>
-    <row r="488" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="488" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C488" s="1">
         <v>482</v>
       </c>
     </row>
-    <row r="489" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="489" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C489" s="1">
         <v>483</v>
       </c>
     </row>
-    <row r="490" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="490" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C490" s="1">
         <v>484</v>
       </c>
     </row>
-    <row r="491" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="491" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C491" s="1">
         <v>485</v>
       </c>
     </row>
-    <row r="492" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="492" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C492" s="1">
         <v>486</v>
       </c>
     </row>
-    <row r="493" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="493" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C493" s="1">
         <v>487</v>
       </c>
     </row>
-    <row r="494" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="494" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C494" s="1">
         <v>488</v>
       </c>
     </row>
-    <row r="495" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="495" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C495" s="1">
         <v>489</v>
       </c>
     </row>
-    <row r="496" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="496" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C496" s="1">
         <v>490</v>
       </c>
     </row>
-    <row r="497" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="497" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C497" s="1">
         <v>491</v>
       </c>
     </row>
-    <row r="498" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="498" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C498" s="1">
         <v>492</v>
       </c>
     </row>
-    <row r="499" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="499" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C499" s="1">
         <v>493</v>
       </c>
     </row>
-    <row r="500" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="500" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C500" s="1">
         <v>494</v>
       </c>
     </row>
-    <row r="501" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="501" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C501" s="1">
         <v>495</v>
       </c>
     </row>
-    <row r="502" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="502" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C502" s="1">
         <v>496</v>
       </c>
     </row>
-    <row r="503" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="503" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C503" s="1">
         <v>497</v>
       </c>
     </row>
-    <row r="504" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="504" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C504" s="1">
         <v>498</v>
       </c>
     </row>
-    <row r="505" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="505" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C505" s="1">
         <v>499</v>
       </c>
     </row>
-    <row r="506" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="506" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C506" s="1">
         <v>500</v>
       </c>
     </row>
-    <row r="507" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="507" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C507" s="1">
         <v>501</v>
       </c>
     </row>
-    <row r="508" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="508" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C508" s="1">
         <v>502</v>
       </c>
     </row>
-    <row r="509" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="509" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C509" s="1">
         <v>503</v>
       </c>
     </row>
-    <row r="510" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="510" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C510" s="1">
         <v>504</v>
       </c>
     </row>
-    <row r="511" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="511" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C511" s="1">
         <v>505</v>
       </c>
     </row>
-    <row r="512" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="512" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C512" s="1">
         <v>506</v>
       </c>
     </row>
-    <row r="513" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="513" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C513" s="1">
         <v>507</v>
       </c>
     </row>
-    <row r="514" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="514" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C514" s="1">
         <v>508</v>
       </c>
     </row>
-    <row r="515" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="515" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C515" s="1">
         <v>509</v>
       </c>
     </row>
-    <row r="516" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="516" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C516" s="1">
         <v>510</v>
       </c>
     </row>
-    <row r="517" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="517" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C517" s="1">
         <v>511</v>
       </c>
     </row>
-    <row r="518" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="518" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C518" s="1">
         <v>512</v>
       </c>
     </row>
-    <row r="519" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="519" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C519" s="1">
         <v>513</v>
       </c>
     </row>
-    <row r="520" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="520" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C520" s="1">
         <v>514</v>
       </c>
     </row>
-    <row r="521" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="521" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C521" s="1">
         <v>515</v>
       </c>
     </row>
-    <row r="522" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="522" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C522" s="1">
         <v>516</v>
       </c>
     </row>
-    <row r="523" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="523" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C523" s="1">
         <v>517</v>
       </c>
     </row>
-    <row r="524" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="524" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C524" s="1">
         <v>518</v>
       </c>
     </row>
-    <row r="525" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="525" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C525" s="1">
         <v>519</v>
       </c>
     </row>
-    <row r="526" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="526" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C526" s="1">
         <v>520</v>
       </c>
     </row>
-    <row r="527" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="527" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C527" s="1">
         <v>521</v>
       </c>
     </row>
-    <row r="528" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="528" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C528" s="1">
         <v>522</v>
       </c>
     </row>
-    <row r="529" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="529" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C529" s="1">
         <v>523</v>
       </c>
     </row>
-    <row r="530" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="530" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C530" s="1">
         <v>524</v>
       </c>
     </row>
-    <row r="531" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="531" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C531" s="1">
         <v>525</v>
       </c>
     </row>
-    <row r="532" spans="3:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="532" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C532" s="1">
         <v>526</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C6:F532" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Y"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="C6:F532" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3724,7 +3942,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="9.06640625" style="3"/>
+    <col min="1" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
     <row r="14" spans="4:9" x14ac:dyDescent="0.4">
@@ -3981,20 +4199,20 @@
       </c>
     </row>
     <row r="46" spans="5:11" x14ac:dyDescent="0.4">
-      <c r="E46" s="3">
+      <c r="E46" s="1">
         <v>503</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="1">
         <v>132</v>
       </c>
     </row>
     <row r="56" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="F56" s="3">
+      <c r="F56" s="1">
         <v>511</v>
       </c>
     </row>
     <row r="62" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="E62" s="3">
+      <c r="E62" s="1">
         <v>504</v>
       </c>
     </row>

--- a/DQM3.xlsx
+++ b/DQM3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\public_git\fun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8501D035-E967-41A3-93DB-13F2F8C5D724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC31C5C7-E3BE-47E7-A7CD-1C1C29A7AF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="117">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -423,6 +423,90 @@
   </si>
   <si>
     <t>阴影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺旋卷史莱姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丛林史莱姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洋葱史莱姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷你龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行军乐手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点点龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀人玉蜀黎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓑衣怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条纹猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半兽人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹰人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芝士怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舞蹈宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持盾巨魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格里姆林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小恶魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吓人撒旦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泡泡鬼魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少女人偶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -763,8 +847,8 @@
   <dimension ref="C6:F532"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A442" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E448" sqref="E448"/>
+      <pane ySplit="6" topLeftCell="A454" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E460" sqref="E460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -803,6 +887,12 @@
       <c r="C8" s="1">
         <v>2</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C9" s="1">
@@ -817,7 +907,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.4">
@@ -878,6 +968,12 @@
       <c r="C17" s="1">
         <v>11</v>
       </c>
+      <c r="D17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C18" s="1">
@@ -926,6 +1022,12 @@
       <c r="C23" s="1">
         <v>17</v>
       </c>
+      <c r="D23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C24" s="1">
@@ -1194,6 +1296,12 @@
       <c r="C73" s="1">
         <v>67</v>
       </c>
+      <c r="D73" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="74" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C74" s="1">
@@ -1270,6 +1378,12 @@
       <c r="C81" s="1">
         <v>75</v>
       </c>
+      <c r="D81" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="82" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C82" s="1">
@@ -1307,6 +1421,12 @@
       <c r="C86" s="1">
         <v>80</v>
       </c>
+      <c r="D86" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="87" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C87" s="1">
@@ -1689,7 +1809,7 @@
         <v>49</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150" spans="3:5" x14ac:dyDescent="0.4">
@@ -1750,6 +1870,12 @@
       <c r="C156" s="1">
         <v>150</v>
       </c>
+      <c r="D156" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="157" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C157" s="1">
@@ -1787,6 +1913,12 @@
       <c r="C161" s="1">
         <v>155</v>
       </c>
+      <c r="D161" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="162" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C162" s="1">
@@ -2109,6 +2241,12 @@
       <c r="C217" s="1">
         <v>211</v>
       </c>
+      <c r="D217" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="218" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C218" s="1">
@@ -2145,7 +2283,7 @@
         <v>28</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="222" spans="3:5" x14ac:dyDescent="0.4">
@@ -2168,6 +2306,12 @@
       <c r="C224" s="1">
         <v>218</v>
       </c>
+      <c r="D224" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="225" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C225" s="1">
@@ -2210,6 +2354,12 @@
       <c r="C230" s="1">
         <v>224</v>
       </c>
+      <c r="D230" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="231" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C231" s="1">
@@ -2544,6 +2694,12 @@
       <c r="C292" s="1">
         <v>286</v>
       </c>
+      <c r="D292" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="293" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C293" s="1">
@@ -2665,6 +2821,12 @@
       <c r="C309" s="1">
         <v>303</v>
       </c>
+      <c r="D309" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="310" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C310" s="1">
@@ -2690,6 +2852,12 @@
       <c r="C314" s="1">
         <v>308</v>
       </c>
+      <c r="D314" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E314" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="315" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C315" s="1">
@@ -2921,6 +3089,12 @@
       <c r="C359" s="1">
         <v>353</v>
       </c>
+      <c r="D359" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E359" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="360" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C360" s="1">
@@ -2957,7 +3131,7 @@
         <v>31</v>
       </c>
       <c r="E363" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="364" spans="3:5" x14ac:dyDescent="0.4">
@@ -3019,6 +3193,12 @@
       <c r="C369" s="1">
         <v>363</v>
       </c>
+      <c r="D369" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E369" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="370" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C370" s="1">
@@ -3060,6 +3240,12 @@
       <c r="C376" s="1">
         <v>370</v>
       </c>
+      <c r="D376" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E376" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="377" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C377" s="1">
@@ -3432,6 +3618,12 @@
       <c r="C442" s="1">
         <v>436</v>
       </c>
+      <c r="D442" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E442" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="443" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C443" s="1">
@@ -3583,6 +3775,12 @@
     <row r="464" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C464" s="1">
         <v>458</v>
+      </c>
+      <c r="D464" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E464" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="465" spans="3:3" x14ac:dyDescent="0.4">
